--- a/Asset/Excel/TF-IDF.xlsx
+++ b/Asset/Excel/TF-IDF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Asset\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739F7F7C-DEC9-48D9-844C-1C18A8E5D66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77919C43-6761-4104-B3C4-003D4C81BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8C8C9A63-A0FD-4764-A9D9-4A03C8B9B735}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8C8C9A63-A0FD-4764-A9D9-4A03C8B9B735}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,15 +173,21 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -204,25 +210,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C751323-D3D2-4215-AD7F-F45EE4F099B6}">
   <dimension ref="C3:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,13 +595,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -576,667 +614,668 @@
       <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="3:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="G5" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="G6" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G7" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H7" s="5">
         <v>0.08</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L7" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="G8" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H8" s="5">
         <v>0.08</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="5">
         <v>2</v>
       </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L8" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="G9" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H9" s="5">
         <v>0.08</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="5">
         <v>2</v>
       </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L9" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="5">
         <v>0.09</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="5">
         <v>0.08</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="5">
         <v>2</v>
       </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
         <v>0.12</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="5">
         <v>0.13</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="5">
         <v>0.08</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="5">
         <v>2</v>
       </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
         <v>0.17</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="G12" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L12" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="5">
         <v>0.09</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K13" s="5">
         <v>0.12</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="G14" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L15" s="1">
+      <c r="G15" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L15" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L16" s="1">
+      <c r="G16" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="G17" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L17" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="G18" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L19" s="1">
+      <c r="G19" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L19" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L20" s="1">
+      <c r="G20" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L20" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L21" s="1">
+      <c r="G21" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L22" s="1">
+      <c r="G22" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L23" s="1">
+      <c r="G23" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L23" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
         <v>0.08</v>
       </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
         <v>0.08</v>
       </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
         <v>0.08</v>
       </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>0.08</v>
       </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
         <v>0.08</v>
       </c>
-      <c r="I28" s="1">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
         <v>0.08</v>
       </c>
-      <c r="I29" s="1">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
         <v>0.08</v>
       </c>
-      <c r="I30" s="1">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
         <v>0.08</v>
       </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1">
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Asset/Excel/TF-IDF.xlsx
+++ b/Asset/Excel/TF-IDF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Asset\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77919C43-6761-4104-B3C4-003D4C81BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052EFFCA-86DF-4470-9C44-07765966711C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8C8C9A63-A0FD-4764-A9D9-4A03C8B9B735}"/>
   </bookViews>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -579,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C751323-D3D2-4215-AD7F-F45EE4F099B6}">
   <dimension ref="C3:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +610,7 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -626,19 +635,19 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -649,624 +658,678 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="G5" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K5" s="3">
+        <f>G5*$J5</f>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <f>H5*$J5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="G6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" ref="K6:K31" si="0">G6*$J6</f>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" ref="L6:L31" si="1">H6*$J6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="G7" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I7" s="3">
         <v>2</v>
       </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0.1</v>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="G8" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I8" s="3">
         <v>2</v>
       </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0.1</v>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="G9" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I9" s="3">
         <v>2</v>
       </c>
-      <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0.1</v>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>0.09</v>
       </c>
-      <c r="H10" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="H10" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I10" s="3">
         <v>2</v>
       </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0.1</v>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>0.13</v>
       </c>
-      <c r="H11" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="H11" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I11" s="3">
         <v>2</v>
       </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0.1</v>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="G12" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>0.09</v>
       </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="L13" s="5">
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="L14" s="5">
+      <c r="G14" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="L15" s="5">
+      <c r="G15" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="L16" s="5">
+      <c r="G16" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="L17" s="5">
+      <c r="G17" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="L18" s="5">
+      <c r="G18" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="L19" s="5">
+      <c r="G19" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="L20" s="5">
+      <c r="G20" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
-        <v>1</v>
-      </c>
-      <c r="J21" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="L21" s="5">
+      <c r="G21" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="L22" s="5">
+      <c r="G22" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K23" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="L23" s="5">
+      <c r="G23" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I24" s="5">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K24" s="5">
-        <v>0</v>
-      </c>
-      <c r="L24" s="5">
-        <v>0.1</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10400000000000001</v>
       </c>
     </row>
     <row r="25" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5">
-        <v>0.1</v>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10400000000000001</v>
       </c>
     </row>
     <row r="26" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I26" s="5">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K26" s="5">
-        <v>0</v>
-      </c>
-      <c r="L26" s="5">
-        <v>0.1</v>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10400000000000001</v>
       </c>
     </row>
     <row r="27" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I27" s="5">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K27" s="5">
-        <v>0</v>
-      </c>
-      <c r="L27" s="5">
-        <v>0.1</v>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10400000000000001</v>
       </c>
     </row>
     <row r="28" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I28" s="5">
-        <v>1</v>
-      </c>
-      <c r="J28" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K28" s="5">
-        <v>0</v>
-      </c>
-      <c r="L28" s="5">
-        <v>0.1</v>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10400000000000001</v>
       </c>
     </row>
     <row r="29" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I29" s="5">
-        <v>1</v>
-      </c>
-      <c r="J29" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K29" s="5">
-        <v>0</v>
-      </c>
-      <c r="L29" s="5">
-        <v>0.1</v>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10400000000000001</v>
       </c>
     </row>
     <row r="30" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1</v>
-      </c>
-      <c r="J30" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K30" s="5">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
-        <v>0.1</v>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10400000000000001</v>
       </c>
     </row>
     <row r="31" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I31" s="5">
-        <v>1</v>
-      </c>
-      <c r="J31" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0</v>
-      </c>
-      <c r="L31" s="5">
-        <v>0.1</v>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10400000000000001</v>
       </c>
     </row>
   </sheetData>
